--- a/src/analysis_examples/circadb/results_jtk/cosinor_10409278_nfil3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10409278_nfil3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.34503919198563704, 0.4905105454307531]</t>
+          <t>[0.3471352024514298, 0.48841453496496035]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.927947187624795e-11</v>
+        <v>4.617484172797504e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>7.927947187624795e-11</v>
+        <v>4.617484172797504e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9056843686024632</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.422258061499531, 0.49916682319399036]</t>
+          <t>[0.4222567777846914, 0.49916810690882996]</t>
         </is>
       </c>
       <c r="U2" t="n">
